--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FD559D-FC21-4042-A8B0-849E3223A598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{089F4E2F-BA13-47DA-B920-DB7FCDA83A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>386567</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,15 +6275,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.60894341367279414</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.68520930232558175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.62962790697674409</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.42417054263565923</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.16450000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.53220000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.27499999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>48.47</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.9375E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.58259259259259266</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>3.406E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9719,19 +9719,19 @@
       </c>
       <c r="H19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K19" s="93">
         <f>frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L19" s="94">
         <v>0</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.42417054263565923</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.49462</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21197999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,64 +10347,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="93">
         <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O34" s="93">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2019</v>
@@ -16294,7 +16294,7 @@
         <v>1005321.1455999608</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2020</v>
@@ -16327,7 +16327,7 @@
         <v>1018109.110225983</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -16360,7 +16360,7 @@
         <v>1030041.527275402</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16393,7 +16393,7 @@
         <v>1041411.4315908876</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16424,7 +16424,7 @@
         <v>1144758</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16455,7 +16455,7 @@
         <v>1155803</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16486,7 +16486,7 @@
         <v>1166121</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16517,7 +16517,7 @@
         <v>1176483</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16548,7 +16548,7 @@
         <v>1186730</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16579,7 +16579,7 @@
         <v>1196586</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16610,7 +16610,7 @@
         <v>1205891</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16643,7 +16643,7 @@
         <v>707491.39474927774</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17126,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17172,7 +17172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17218,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17241,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17287,7 +17287,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17299,12 +17299,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17366,12 +17366,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17439,12 +17439,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17465,16 +17465,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17518,7 +17518,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17541,13 +17541,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17597,7 +17597,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17606,7 +17606,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17700,7 +17700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17738,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17852,10 +17852,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17876,7 +17876,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17884,7 +17884,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17927,12 +17927,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18460,13 +18460,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18642,16 +18642,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18672,7 +18672,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18680,7 +18680,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18699,12 +18699,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18735,7 +18735,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18773,7 +18773,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18786,7 +18786,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19103,7 +19103,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19196,7 +19196,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19268,7 +19268,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -19996,7 +19996,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20005,7 +20005,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20136,7 +20136,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20170,24 +20170,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20208,7 +20208,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20217,7 +20217,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20417,14 +20417,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2019) attributable to cause</v>
@@ -20435,7 +20435,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20450,7 +20450,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>0.25929999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20525,7 +20525,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20534,7 +20534,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>0.2155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>0.57640000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20731,7 +20731,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20740,7 +20740,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20756,7 +20756,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>0.21790000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20820,7 +20820,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20856,13 +20856,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2019)</v>
@@ -20886,7 +20886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>0.46479999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20930,7 +20930,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20951,7 +20951,7 @@
         <v>0.16589999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20972,7 +20972,7 @@
         <v>7.6299999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20980,7 +20980,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20988,7 +20988,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>0.90659999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>4.7631000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21085,7 +21085,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>0.23569999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21230,14 +21230,14 @@
         <v>0.13731707407407409</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21263,13 +21263,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2019)</v>
@@ -21293,7 +21293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21398,13 +21398,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21449,10 +21449,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21477,10 +21477,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21500,7 +21500,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21517,7 +21517,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21534,7 +21534,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21554,7 +21554,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21571,7 +21571,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21590,7 +21590,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21624,7 +21624,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21632,7 +21632,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21677,7 +21677,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21691,7 +21691,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21703,7 +21703,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21715,7 +21715,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21724,7 +21724,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21735,7 +21735,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21744,7 +21744,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21753,7 +21753,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21764,7 +21764,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21775,7 +21775,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21784,7 +21784,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21810,7 +21810,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21822,7 +21822,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21834,7 +21834,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21846,7 +21846,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21875,7 +21875,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21883,7 +21883,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21942,7 +21942,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21952,7 +21952,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22038,7 +22038,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22293,7 +22293,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22583,7 +22583,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{089F4E2F-BA13-47DA-B920-DB7FCDA83A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78C63DB-DF4C-4FC7-92E1-AD826E915464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22134,7 +22134,7 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="86">
-        <v>3.69</v>
+        <v>3.48</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>201</v>
@@ -22151,7 +22151,7 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="86">
-        <v>3.69</v>
+        <v>3.48</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>201</v>
@@ -22168,7 +22168,7 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="86">
-        <v>3.69</v>
+        <v>3.48</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>201</v>
@@ -22202,7 +22202,7 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="86">
-        <v>21.69</v>
+        <v>20.46</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>201</v>
@@ -22219,7 +22219,7 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="86">
-        <v>0.15</v>
+        <v>2.36</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>201</v>
@@ -22236,7 +22236,7 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="86">
-        <v>2.36</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>201</v>
@@ -22270,7 +22270,7 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
-        <v>36.81</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>201</v>
@@ -22406,7 +22406,7 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="86">
-        <v>18.239999999999998</v>
+        <v>28.64</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>201</v>
@@ -22474,7 +22474,7 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="86">
-        <v>347.63</v>
+        <v>327.95</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>201</v>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78C63DB-DF4C-4FC7-92E1-AD826E915464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADA58F0-826B-44BF-89D2-BF80847699E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6202,7 +6202,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6738,8 +6738,12 @@
       <c r="C5" s="81"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11782,8 +11786,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12461,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12482,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12893,12 +12897,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12908,6 +12906,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21394,7 +21398,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -21938,8 +21942,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D39" sqref="D2:D39"/>
+    <sheetView topLeftCell="A13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22267,7 +22271,8 @@
         <v>0</v>
       </c>
       <c r="C19" s="85">
-        <v>0.95</v>
+        <f>(1-food_insecure)*0.95</f>
+        <v>0.92909999999999993</v>
       </c>
       <c r="D19" s="86">
         <v>34.729999999999997</v>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADA58F0-826B-44BF-89D2-BF80847699E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE94484-CFFF-4538-95F3-660875B8C3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6857,8 +6857,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6913,7 +6913,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
@@ -11786,7 +11788,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12897,6 +12899,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12906,12 +12914,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE94484-CFFF-4538-95F3-660875B8C3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{572A1D9A-F6B3-405F-8D84-510ECA8949B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6537,7 +6537,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="67">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6990000000000002E-2</v>
       </c>
       <c r="D45" s="17"/>
     </row>
@@ -6546,7 +6546,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="67">
-        <v>6.4399999999999999E-2</v>
+        <v>6.4409999999999995E-2</v>
       </c>
       <c r="D46" s="17"/>
     </row>
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="67">
-        <v>0.1145</v>
+        <v>0.11451</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C48" s="70">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>0.80409999999999993</v>
+        <v>0.80409000000000008</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572A1D9A-F6B3-405F-8D84-510ECA8949B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3667FC-E911-4314-A029-A56D2029B511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6857,8 +6857,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11788,7 +11788,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -11904,8 +11904,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="105">
-        <f>5.16</f>
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E5" s="105">
         <v>1</v>
@@ -11926,7 +11925,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="105">
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="105">
         <v>1</v>
@@ -11973,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F8" s="105">
         <v>1</v>
@@ -11994,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F9" s="105">
         <v>1</v>
@@ -12399,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G28" s="105">
         <v>1</v>
@@ -12420,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G29" s="105">
         <v>1</v>
@@ -12467,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12488,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12899,12 +12898,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12914,6 +12907,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17290,7 +17289,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17408,10 +17407,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="121">
         <v>1</v>
@@ -18775,8 +18774,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18990,13 +18989,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19010,10 +19009,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="121">
         <v>0</v>
@@ -19033,13 +19032,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19053,10 +19052,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12" s="121">
         <v>0</v>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3667FC-E911-4314-A029-A56D2029B511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69BBB8F-79C2-4F0D-8E81-A00163075BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="66">
-        <v>0.62962790697674409</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,8 +6678,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,8 +6747,12 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7072,7 +7076,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7363,10 +7367,11 @@
         <v>196</v>
       </c>
       <c r="C7" s="96">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D7" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="96">
         <v>0</v>
@@ -8885,7 +8890,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9047,7 +9052,8 @@
         <v>196</v>
       </c>
       <c r="C4" s="93">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D4" s="93">
         <v>0</v>
@@ -11788,7 +11794,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12898,6 +12904,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12907,12 +12919,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13323,7 +13329,7 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -18717,16 +18723,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18774,8 +18780,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18900,13 +18906,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18920,13 +18929,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H6" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18943,13 +18955,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -18963,13 +18978,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H8" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19968,7 +19986,7 @@
         <v>268</v>
       </c>
       <c r="D53" s="121">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E53" s="121">
         <v>0</v>
@@ -21944,7 +21962,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22020,7 +22038,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>1520.46</v>
+        <v>83.38</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22293,7 +22311,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>
@@ -22324,7 +22342,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="85">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="86">
         <v>35.99</v>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69BBB8F-79C2-4F0D-8E81-A00163075BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D80B99-A0A8-42BB-B147-284430603547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22038,7 +22038,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>83.38</v>
+        <v>48.65</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22311,7 +22311,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>

--- a/analyses/inputs/Medium 2019 base/Panama_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Panama_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D80B99-A0A8-42BB-B147-284430603547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40A96C1-5875-4B49-968F-59062CC12FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,12 +6747,8 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12904,12 +12900,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12919,6 +12909,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
